--- a/Electrical/Analysis+Design/RadarCalculators.xlsx
+++ b/Electrical/Analysis+Design/RadarCalculators.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdorsay\Desktop\RF-Tests\Projects\3GHzRadar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Documents\GitHub\3GHz_Pulse_Radar\Electrical\Analysis+Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8687C5D2-6C94-409D-8671-DE22907B5740}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12180" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RadarRange" sheetId="1" r:id="rId1"/>
+    <sheet name="LinkBudget" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
   <si>
     <t>Pt</t>
   </si>
@@ -126,16 +128,104 @@
   </si>
   <si>
     <t>m</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>ANT</t>
+  </si>
+  <si>
+    <t>Coupler</t>
+  </si>
+  <si>
+    <t>LNA</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>Gain</t>
+  </si>
+  <si>
+    <t>BPF</t>
+  </si>
+  <si>
+    <t>Mixer</t>
+  </si>
+  <si>
+    <t>LPF</t>
+  </si>
+  <si>
+    <t>Bandwidth (MHz)</t>
+  </si>
+  <si>
+    <t>Signal Input (dBm)</t>
+  </si>
+  <si>
+    <t>Gain (dB)</t>
+  </si>
+  <si>
+    <t>Gain (lin)</t>
+  </si>
+  <si>
+    <t>Cumulative Gain (dB)</t>
+  </si>
+  <si>
+    <t>Cumulative Gain (lin)</t>
+  </si>
+  <si>
+    <t>IIP3 (dB)</t>
+  </si>
+  <si>
+    <t>IIP3 (lin)</t>
+  </si>
+  <si>
+    <t>Total IIP3 (dB)</t>
+  </si>
+  <si>
+    <t>Total IIP3 (lin)</t>
+  </si>
+  <si>
+    <t>P1dB (dBm)</t>
+  </si>
+  <si>
+    <t>Noise Input (dBm)</t>
+  </si>
+  <si>
+    <t>NF (dB)</t>
+  </si>
+  <si>
+    <t>NF (lin)</t>
+  </si>
+  <si>
+    <t>Total NF (dB)</t>
+  </si>
+  <si>
+    <t>Total NF (lin)</t>
+  </si>
+  <si>
+    <t>SNR (dB)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -154,13 +244,39 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -172,25 +288,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{90A4D1D4-FFCF-4D45-B4BD-1C6393EE9F55}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -467,11 +596,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -490,11 +619,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18.75">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
       <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
@@ -566,7 +695,7 @@
       </c>
       <c r="J5" s="4">
         <f>POWER($F$5*POWER($F$10*$F$11/1000, 2)*$B$10/(POWER(4*PI(),3)*$F$9), 0.25)</f>
-        <v>70.491064778445732</v>
+        <v>56.026251905705593</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>32</v>
@@ -577,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="3">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -587,7 +716,7 @@
       </c>
       <c r="F6" s="4">
         <f>10*LOG10($B$17*($B$11+$B$19)*$B$6)+30+60</f>
-        <v>-97.907669784609595</v>
+        <v>-90.917969741249408</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>1</v>
@@ -601,7 +730,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
@@ -609,15 +738,15 @@
       <c r="E7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <f>POWER(10, ($F$6-30)/10)</f>
-        <v>1.6189484545519853E-13</v>
+        <v>8.094742272759921E-13</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="3"/>
-      <c r="J7" s="7"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
@@ -634,7 +763,7 @@
       </c>
       <c r="F8" s="4">
         <f>$F$6+$B$7</f>
-        <v>-94.907669784609595</v>
+        <v>-90.917969741249408</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>1</v>
@@ -655,15 +784,15 @@
       <c r="E9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <f>POWER(10, ($F$8-30)/10)</f>
-        <v>3.2302268412446864E-13</v>
+        <v>8.094742272759921E-13</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="3"/>
-      <c r="J9" s="7"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="3" t="s">
@@ -712,11 +841,11 @@
       <c r="J11" s="4"/>
     </row>
     <row r="14" spans="1:11" ht="18.75">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
@@ -733,7 +862,7 @@
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="5">
         <v>1.3806485199999999E-23</v>
       </c>
     </row>
@@ -784,4 +913,706 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8CAC57-715D-4648-B686-41674048B8D5}">
+  <dimension ref="C1:L20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="10"/>
+    <col min="3" max="3" width="20.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:12">
+      <c r="C1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="9">
+        <v>1</v>
+      </c>
+      <c r="E1" s="9">
+        <v>2</v>
+      </c>
+      <c r="F1" s="9">
+        <v>3</v>
+      </c>
+      <c r="G1" s="9">
+        <v>4</v>
+      </c>
+      <c r="H1" s="9">
+        <v>5</v>
+      </c>
+      <c r="I1" s="9">
+        <v>6</v>
+      </c>
+      <c r="J1" s="9">
+        <v>7</v>
+      </c>
+      <c r="K1" s="9">
+        <v>8</v>
+      </c>
+      <c r="L1" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="3:12">
+      <c r="C2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="3:12">
+      <c r="C3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="12">
+        <v>30</v>
+      </c>
+      <c r="E3" s="12">
+        <v>100</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="3:12">
+      <c r="C4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="13">
+        <v>-90</v>
+      </c>
+      <c r="E4" s="13">
+        <f>D$4+D$5</f>
+        <v>-90</v>
+      </c>
+      <c r="F4" s="13">
+        <f>E$4+E$5</f>
+        <v>-93</v>
+      </c>
+      <c r="G4" s="13">
+        <f t="shared" ref="G4:L4" si="0">F$4+F$5</f>
+        <v>-71</v>
+      </c>
+      <c r="H4" s="13">
+        <f t="shared" si="0"/>
+        <v>-72</v>
+      </c>
+      <c r="I4" s="13">
+        <f>H$4+H$5</f>
+        <v>-49</v>
+      </c>
+      <c r="J4" s="13">
+        <f t="shared" si="0"/>
+        <v>-50.8</v>
+      </c>
+      <c r="K4" s="13">
+        <f t="shared" si="0"/>
+        <v>-55.8</v>
+      </c>
+      <c r="L4" s="13">
+        <f t="shared" si="0"/>
+        <v>-57.3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12">
+      <c r="C5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>-3</v>
+      </c>
+      <c r="F5" s="12">
+        <v>22</v>
+      </c>
+      <c r="G5" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="12">
+        <v>23</v>
+      </c>
+      <c r="I5" s="12">
+        <v>-1.8</v>
+      </c>
+      <c r="J5" s="12">
+        <v>-5</v>
+      </c>
+      <c r="K5" s="12">
+        <v>-1.5</v>
+      </c>
+      <c r="L5" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12">
+      <c r="C6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="13">
+        <f>POWER(10, D$5/10)</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="13">
+        <f>POWER(10, E$5/10)</f>
+        <v>0.50118723362727224</v>
+      </c>
+      <c r="F6" s="13">
+        <f t="shared" ref="F6:L6" si="1">POWER(10, F$5/10)</f>
+        <v>158.48931924611153</v>
+      </c>
+      <c r="G6" s="13">
+        <f t="shared" si="1"/>
+        <v>0.79432823472428149</v>
+      </c>
+      <c r="H6" s="13">
+        <f t="shared" si="1"/>
+        <v>199.52623149688802</v>
+      </c>
+      <c r="I6" s="13">
+        <f t="shared" si="1"/>
+        <v>0.660693448007596</v>
+      </c>
+      <c r="J6" s="13">
+        <f t="shared" si="1"/>
+        <v>0.31622776601683794</v>
+      </c>
+      <c r="K6" s="13">
+        <f t="shared" si="1"/>
+        <v>0.70794578438413791</v>
+      </c>
+      <c r="L6" s="13">
+        <f t="shared" si="1"/>
+        <v>199.52623149688802</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12">
+      <c r="C7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="14">
+        <f>D$5</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="14">
+        <f>D$7+E$5</f>
+        <v>-3</v>
+      </c>
+      <c r="F7" s="14">
+        <f>E$7+F$5</f>
+        <v>19</v>
+      </c>
+      <c r="G7" s="14">
+        <f t="shared" ref="G7:L7" si="2">F$7+G$5</f>
+        <v>18</v>
+      </c>
+      <c r="H7" s="14">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="I7" s="14">
+        <f t="shared" si="2"/>
+        <v>39.200000000000003</v>
+      </c>
+      <c r="J7" s="14">
+        <f t="shared" si="2"/>
+        <v>34.200000000000003</v>
+      </c>
+      <c r="K7" s="14">
+        <f t="shared" si="2"/>
+        <v>32.700000000000003</v>
+      </c>
+      <c r="L7" s="14">
+        <f t="shared" si="2"/>
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12">
+      <c r="C8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="13">
+        <f>D$6</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="13">
+        <f>D$8*E$6</f>
+        <v>0.50118723362727224</v>
+      </c>
+      <c r="F8" s="13">
+        <f>E$8*F$6</f>
+        <v>79.43282347242824</v>
+      </c>
+      <c r="G8" s="13">
+        <f t="shared" ref="G8:L8" si="3">F$8*G$6</f>
+        <v>63.095734448019392</v>
+      </c>
+      <c r="H8" s="13">
+        <f t="shared" si="3"/>
+        <v>12589.254117941689</v>
+      </c>
+      <c r="I8" s="13">
+        <f t="shared" si="3"/>
+        <v>8317.6377110267222</v>
+      </c>
+      <c r="J8" s="13">
+        <f t="shared" si="3"/>
+        <v>2630.2679918953859</v>
+      </c>
+      <c r="K8" s="13">
+        <f t="shared" si="3"/>
+        <v>1862.0871366628703</v>
+      </c>
+      <c r="L8" s="13">
+        <f t="shared" si="3"/>
+        <v>371535.2290971732</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12">
+      <c r="C9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="12">
+        <v>20</v>
+      </c>
+      <c r="E9" s="12">
+        <v>20</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="3:12">
+      <c r="C10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="13">
+        <f>POWER(10, D$9/10)</f>
+        <v>100</v>
+      </c>
+      <c r="E10" s="13">
+        <f>POWER(10, E$9/10)</f>
+        <v>100</v>
+      </c>
+      <c r="F10" s="13">
+        <f t="shared" ref="F10:L10" si="4">POWER(10, F$9/10)</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H10" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J10" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L10" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12">
+      <c r="C11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="14">
+        <f>10*LOG10(D$12)</f>
+        <v>20</v>
+      </c>
+      <c r="E11" s="14">
+        <f>10*LOG10(E$12)</f>
+        <v>16.989700043360187</v>
+      </c>
+      <c r="F11" s="14">
+        <f t="shared" ref="F11:L11" si="5">10*LOG10(F$12)</f>
+        <v>-8.6001717619175799E-2</v>
+      </c>
+      <c r="G11" s="14">
+        <f t="shared" si="5"/>
+        <v>-3.053513694466238</v>
+      </c>
+      <c r="H11" s="14">
+        <f t="shared" si="5"/>
+        <v>-4.8000694295715061</v>
+      </c>
+      <c r="I11" s="14">
+        <f t="shared" si="5"/>
+        <v>-6.0422605308446995</v>
+      </c>
+      <c r="J11" s="14">
+        <f t="shared" si="5"/>
+        <v>-7.0070371714501931</v>
+      </c>
+      <c r="K11" s="14">
+        <f t="shared" si="5"/>
+        <v>-7.7959649125782446</v>
+      </c>
+      <c r="L11" s="14">
+        <f t="shared" si="5"/>
+        <v>-8.4633711212980529</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12">
+      <c r="C12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="13">
+        <f>D10</f>
+        <v>100</v>
+      </c>
+      <c r="E12" s="13">
+        <f>1/((1/D$12)+(1/E$10))</f>
+        <v>50</v>
+      </c>
+      <c r="F12" s="13">
+        <f t="shared" ref="F12:L12" si="6">1/((1/E$12)+(1/F$10))</f>
+        <v>0.98039215686274506</v>
+      </c>
+      <c r="G12" s="13">
+        <f t="shared" si="6"/>
+        <v>0.49504950495049505</v>
+      </c>
+      <c r="H12" s="13">
+        <f t="shared" si="6"/>
+        <v>0.33112582781456956</v>
+      </c>
+      <c r="I12" s="13">
+        <f t="shared" si="6"/>
+        <v>0.24875621890547267</v>
+      </c>
+      <c r="J12" s="13">
+        <f t="shared" si="6"/>
+        <v>0.19920318725099603</v>
+      </c>
+      <c r="K12" s="13">
+        <f t="shared" si="6"/>
+        <v>0.16611295681063123</v>
+      </c>
+      <c r="L12" s="13">
+        <f t="shared" si="6"/>
+        <v>0.14245014245014245</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12">
+      <c r="C13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="3:12">
+      <c r="C14" s="9"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+    </row>
+    <row r="15" spans="3:12">
+      <c r="C15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="13">
+        <f>-174+10*LOG10(MIN(D$3:L$3)*1000000)</f>
+        <v>-99.228787452803374</v>
+      </c>
+      <c r="E15" s="13">
+        <f>$D$15+D$7+E18</f>
+        <v>-96.228787452803374</v>
+      </c>
+      <c r="F15" s="13">
+        <f t="shared" ref="F15:L15" si="7">$D$15+E$7+F18</f>
+        <v>-98.728787452803374</v>
+      </c>
+      <c r="G15" s="13">
+        <f t="shared" si="7"/>
+        <v>-76.722468530687152</v>
+      </c>
+      <c r="H15" s="13">
+        <f t="shared" si="7"/>
+        <v>-77.656586705103749</v>
+      </c>
+      <c r="I15" s="13">
+        <f t="shared" si="7"/>
+        <v>-54.65650887410726</v>
+      </c>
+      <c r="J15" s="13">
+        <f t="shared" si="7"/>
+        <v>-56.431075956662824</v>
+      </c>
+      <c r="K15" s="13">
+        <f t="shared" si="7"/>
+        <v>-61.430778473927006</v>
+      </c>
+      <c r="L15" s="13">
+        <f t="shared" si="7"/>
+        <v>-62.92857663888914</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12">
+      <c r="C16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0</v>
+      </c>
+      <c r="E16" s="12">
+        <v>3</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="12">
+        <v>1</v>
+      </c>
+      <c r="H16" s="12">
+        <v>5</v>
+      </c>
+      <c r="I16" s="12">
+        <v>1.8</v>
+      </c>
+      <c r="J16" s="12">
+        <v>20.5</v>
+      </c>
+      <c r="K16" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="L16" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12">
+      <c r="C17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="13">
+        <f>POWER(10, D$16/10)</f>
+        <v>1</v>
+      </c>
+      <c r="E17" s="13">
+        <f>POWER(10, E$16/10)</f>
+        <v>1.9952623149688797</v>
+      </c>
+      <c r="F17" s="13">
+        <f t="shared" ref="F17:L17" si="8">POWER(10, F$16/10)</f>
+        <v>1.1220184543019636</v>
+      </c>
+      <c r="G17" s="13">
+        <f t="shared" si="8"/>
+        <v>1.2589254117941673</v>
+      </c>
+      <c r="H17" s="13">
+        <f t="shared" si="8"/>
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="I17" s="13">
+        <f t="shared" si="8"/>
+        <v>1.5135612484362082</v>
+      </c>
+      <c r="J17" s="13">
+        <f t="shared" si="8"/>
+        <v>112.20184543019634</v>
+      </c>
+      <c r="K17" s="13">
+        <f t="shared" si="8"/>
+        <v>1.4125375446227544</v>
+      </c>
+      <c r="L17" s="13">
+        <f t="shared" si="8"/>
+        <v>3.1622776601683795</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12">
+      <c r="C18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="14">
+        <f>10*LOG10(D19)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="14">
+        <f>10*LOG10(E19)</f>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="F18" s="14">
+        <f t="shared" ref="F18:L18" si="9">10*LOG10(F19)</f>
+        <v>3.5000000000000004</v>
+      </c>
+      <c r="G18" s="14">
+        <f t="shared" si="9"/>
+        <v>3.5063189221162157</v>
+      </c>
+      <c r="H18" s="14">
+        <f t="shared" si="9"/>
+        <v>3.5722007476996209</v>
+      </c>
+      <c r="I18" s="14">
+        <f t="shared" si="9"/>
+        <v>3.5722785786961175</v>
+      </c>
+      <c r="J18" s="14">
+        <f t="shared" si="9"/>
+        <v>3.5977114961405485</v>
+      </c>
+      <c r="K18" s="14">
+        <f t="shared" si="9"/>
+        <v>3.5980089788763663</v>
+      </c>
+      <c r="L18" s="14">
+        <f t="shared" si="9"/>
+        <v>3.6002108139142313</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12">
+      <c r="C19" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="13">
+        <f>D$17</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="13">
+        <f>D$19+(E$17-1)/D$8</f>
+        <v>1.9952623149688797</v>
+      </c>
+      <c r="F19" s="13">
+        <f t="shared" ref="F19:L19" si="10">E$19+(F$17-1)/E$8</f>
+        <v>2.2387211385683399</v>
+      </c>
+      <c r="G19" s="13">
+        <f t="shared" si="10"/>
+        <v>2.2419808163750092</v>
+      </c>
+      <c r="H19" s="13">
+        <f t="shared" si="10"/>
+        <v>2.2762506078131253</v>
+      </c>
+      <c r="I19" s="13">
+        <f t="shared" si="10"/>
+        <v>2.2762914014331144</v>
+      </c>
+      <c r="J19" s="13">
+        <f t="shared" si="10"/>
+        <v>2.2896608038155692</v>
+      </c>
+      <c r="K19" s="13">
+        <f t="shared" si="10"/>
+        <v>2.289817646215619</v>
+      </c>
+      <c r="L19" s="13">
+        <f t="shared" si="10"/>
+        <v>2.2909788580717105</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12">
+      <c r="C20" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="13">
+        <f>D$4-D$15</f>
+        <v>9.228787452803374</v>
+      </c>
+      <c r="E20" s="13">
+        <f t="shared" ref="E20:L20" si="11">E$4-E$15</f>
+        <v>6.228787452803374</v>
+      </c>
+      <c r="F20" s="13">
+        <f t="shared" si="11"/>
+        <v>5.728787452803374</v>
+      </c>
+      <c r="G20" s="13">
+        <f t="shared" si="11"/>
+        <v>5.7224685306871521</v>
+      </c>
+      <c r="H20" s="13">
+        <f t="shared" si="11"/>
+        <v>5.6565867051037486</v>
+      </c>
+      <c r="I20" s="13">
+        <f t="shared" si="11"/>
+        <v>5.65650887410726</v>
+      </c>
+      <c r="J20" s="13">
+        <f t="shared" si="11"/>
+        <v>5.6310759566628263</v>
+      </c>
+      <c r="K20" s="13">
+        <f t="shared" si="11"/>
+        <v>5.630778473927009</v>
+      </c>
+      <c r="L20" s="13">
+        <f t="shared" si="11"/>
+        <v>5.6285766388891432</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Electrical/Analysis+Design/RadarCalculators.xlsx
+++ b/Electrical/Analysis+Design/RadarCalculators.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Documents\GitHub\3GHz_Pulse_Radar\Electrical\Analysis+Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdorsay\Documents\GitHub\3GHz_Pulse_Radar\Electrical\Analysis+Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8687C5D2-6C94-409D-8671-DE22907B5740}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RadarRange" sheetId="1" r:id="rId1"/>
     <sheet name="LinkBudget" sheetId="2" r:id="rId2"/>
+    <sheet name="PulseRadar" sheetId="3" r:id="rId3"/>
+    <sheet name="FMCWRadar" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -214,7 +215,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -299,12 +300,6 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -316,10 +311,16 @@
     <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{90A4D1D4-FFCF-4D45-B4BD-1C6393EE9F55}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -596,11 +597,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -619,22 +620,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18.75">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="E2" s="6" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="E2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11">
       <c r="H3" s="3"/>
@@ -841,11 +842,11 @@
       <c r="J11" s="4"/>
     </row>
     <row r="14" spans="1:11" ht="18.75">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
@@ -916,7 +917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8CAC57-715D-4648-B686-41674048B8D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -925,688 +926,688 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="10"/>
-    <col min="3" max="3" width="20.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="2" width="9.140625" style="8"/>
+    <col min="3" max="3" width="20.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:12">
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="7">
         <v>1</v>
       </c>
-      <c r="E1" s="9">
+      <c r="E1" s="7">
         <v>2</v>
       </c>
-      <c r="F1" s="9">
+      <c r="F1" s="7">
         <v>3</v>
       </c>
-      <c r="G1" s="9">
+      <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="7">
         <v>5</v>
       </c>
-      <c r="I1" s="9">
+      <c r="I1" s="7">
         <v>6</v>
       </c>
-      <c r="J1" s="9">
+      <c r="J1" s="7">
         <v>7</v>
       </c>
-      <c r="K1" s="9">
+      <c r="K1" s="7">
         <v>8</v>
       </c>
-      <c r="L1" s="9">
+      <c r="L1" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="3:12">
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="3:12">
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="10">
         <v>30</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="10">
         <v>100</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="3:12">
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="11">
         <v>-90</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="11">
         <f>D$4+D$5</f>
         <v>-90</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="11">
         <f>E$4+E$5</f>
         <v>-93</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="11">
         <f t="shared" ref="G4:L4" si="0">F$4+F$5</f>
         <v>-71</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="11">
         <f t="shared" si="0"/>
         <v>-72</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="11">
         <f>H$4+H$5</f>
         <v>-49</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="11">
         <f t="shared" si="0"/>
         <v>-50.8</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="11">
         <f t="shared" si="0"/>
         <v>-55.8</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="11">
         <f t="shared" si="0"/>
         <v>-57.3</v>
       </c>
     </row>
     <row r="5" spans="3:12">
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>0</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
         <v>-3</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="10">
         <v>22</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="10">
         <v>-1</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="10">
         <v>23</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="10">
         <v>-1.8</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="10">
         <v>-5</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="10">
         <v>-1.5</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="10">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="3:12">
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="11">
         <f>POWER(10, D$5/10)</f>
         <v>1</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="11">
         <f>POWER(10, E$5/10)</f>
         <v>0.50118723362727224</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="11">
         <f t="shared" ref="F6:L6" si="1">POWER(10, F$5/10)</f>
         <v>158.48931924611153</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="11">
         <f t="shared" si="1"/>
         <v>0.79432823472428149</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="11">
         <f t="shared" si="1"/>
         <v>199.52623149688802</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="11">
         <f t="shared" si="1"/>
         <v>0.660693448007596</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="11">
         <f t="shared" si="1"/>
         <v>0.31622776601683794</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="11">
         <f t="shared" si="1"/>
         <v>0.70794578438413791</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="11">
         <f t="shared" si="1"/>
         <v>199.52623149688802</v>
       </c>
     </row>
     <row r="7" spans="3:12">
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <f>D$5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="12">
         <f>D$7+E$5</f>
         <v>-3</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="12">
         <f>E$7+F$5</f>
         <v>19</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="12">
         <f t="shared" ref="G7:L7" si="2">F$7+G$5</f>
         <v>18</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="12">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="12">
         <f t="shared" si="2"/>
         <v>39.200000000000003</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="12">
         <f t="shared" si="2"/>
         <v>34.200000000000003</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="12">
         <f t="shared" si="2"/>
         <v>32.700000000000003</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="12">
         <f t="shared" si="2"/>
         <v>55.7</v>
       </c>
     </row>
     <row r="8" spans="3:12">
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="11">
         <f>D$6</f>
         <v>1</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="11">
         <f>D$8*E$6</f>
         <v>0.50118723362727224</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="11">
         <f>E$8*F$6</f>
         <v>79.43282347242824</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="11">
         <f t="shared" ref="G8:L8" si="3">F$8*G$6</f>
         <v>63.095734448019392</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="11">
         <f t="shared" si="3"/>
         <v>12589.254117941689</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="11">
         <f t="shared" si="3"/>
         <v>8317.6377110267222</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="11">
         <f t="shared" si="3"/>
         <v>2630.2679918953859</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="11">
         <f t="shared" si="3"/>
         <v>1862.0871366628703</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="11">
         <f t="shared" si="3"/>
         <v>371535.2290971732</v>
       </c>
     </row>
     <row r="9" spans="3:12">
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="10">
         <v>20</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="10">
         <v>20</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
     </row>
     <row r="10" spans="3:12">
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="11">
         <f>POWER(10, D$9/10)</f>
         <v>100</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="11">
         <f>POWER(10, E$9/10)</f>
         <v>100</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="11">
         <f t="shared" ref="F10:L10" si="4">POWER(10, F$9/10)</f>
         <v>1</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="11">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="11">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="11">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="11">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="11">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="11">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="3:12">
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <f>10*LOG10(D$12)</f>
         <v>20</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="12">
         <f>10*LOG10(E$12)</f>
         <v>16.989700043360187</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="12">
         <f t="shared" ref="F11:L11" si="5">10*LOG10(F$12)</f>
         <v>-8.6001717619175799E-2</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="12">
         <f t="shared" si="5"/>
         <v>-3.053513694466238</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="12">
         <f t="shared" si="5"/>
         <v>-4.8000694295715061</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="12">
         <f t="shared" si="5"/>
         <v>-6.0422605308446995</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="12">
         <f t="shared" si="5"/>
         <v>-7.0070371714501931</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="12">
         <f t="shared" si="5"/>
         <v>-7.7959649125782446</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="12">
         <f t="shared" si="5"/>
         <v>-8.4633711212980529</v>
       </c>
     </row>
     <row r="12" spans="3:12">
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="11">
         <f>D10</f>
         <v>100</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="11">
         <f>1/((1/D$12)+(1/E$10))</f>
         <v>50</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="11">
         <f t="shared" ref="F12:L12" si="6">1/((1/E$12)+(1/F$10))</f>
         <v>0.98039215686274506</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="11">
         <f t="shared" si="6"/>
         <v>0.49504950495049505</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="11">
         <f t="shared" si="6"/>
         <v>0.33112582781456956</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="11">
         <f t="shared" si="6"/>
         <v>0.24875621890547267</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="11">
         <f t="shared" si="6"/>
         <v>0.19920318725099603</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="11">
         <f t="shared" si="6"/>
         <v>0.16611295681063123</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="11">
         <f t="shared" si="6"/>
         <v>0.14245014245014245</v>
       </c>
     </row>
     <row r="13" spans="3:12">
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" spans="3:12">
-      <c r="C14" s="9"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
     </row>
     <row r="15" spans="3:12">
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="11">
         <f>-174+10*LOG10(MIN(D$3:L$3)*1000000)</f>
         <v>-99.228787452803374</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="11">
         <f>$D$15+D$7+E18</f>
         <v>-96.228787452803374</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="11">
         <f t="shared" ref="F15:L15" si="7">$D$15+E$7+F18</f>
         <v>-98.728787452803374</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="11">
         <f t="shared" si="7"/>
         <v>-76.722468530687152</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="11">
         <f t="shared" si="7"/>
         <v>-77.656586705103749</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="11">
         <f t="shared" si="7"/>
         <v>-54.65650887410726</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="11">
         <f t="shared" si="7"/>
         <v>-56.431075956662824</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="11">
         <f t="shared" si="7"/>
         <v>-61.430778473927006</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="11">
         <f t="shared" si="7"/>
         <v>-62.92857663888914</v>
       </c>
     </row>
     <row r="16" spans="3:12">
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="10">
         <v>0</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="10">
         <v>3</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="10">
         <v>0.5</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="10">
         <v>1</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="10">
         <v>5</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="10">
         <v>1.8</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="10">
         <v>20.5</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="10">
         <v>1.5</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="3:12">
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="11">
         <f>POWER(10, D$16/10)</f>
         <v>1</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="11">
         <f>POWER(10, E$16/10)</f>
         <v>1.9952623149688797</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="11">
         <f t="shared" ref="F17:L17" si="8">POWER(10, F$16/10)</f>
         <v>1.1220184543019636</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="11">
         <f t="shared" si="8"/>
         <v>1.2589254117941673</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="11">
         <f t="shared" si="8"/>
         <v>3.1622776601683795</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="11">
         <f t="shared" si="8"/>
         <v>1.5135612484362082</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="11">
         <f t="shared" si="8"/>
         <v>112.20184543019634</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="11">
         <f t="shared" si="8"/>
         <v>1.4125375446227544</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="11">
         <f t="shared" si="8"/>
         <v>3.1622776601683795</v>
       </c>
     </row>
     <row r="18" spans="3:12">
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="12">
         <f>10*LOG10(D19)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="12">
         <f>10*LOG10(E19)</f>
         <v>3.0000000000000004</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="12">
         <f t="shared" ref="F18:L18" si="9">10*LOG10(F19)</f>
         <v>3.5000000000000004</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="12">
         <f t="shared" si="9"/>
         <v>3.5063189221162157</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="12">
         <f t="shared" si="9"/>
         <v>3.5722007476996209</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="12">
         <f t="shared" si="9"/>
         <v>3.5722785786961175</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="12">
         <f t="shared" si="9"/>
         <v>3.5977114961405485</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="12">
         <f t="shared" si="9"/>
         <v>3.5980089788763663</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L18" s="12">
         <f t="shared" si="9"/>
         <v>3.6002108139142313</v>
       </c>
     </row>
     <row r="19" spans="3:12">
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="11">
         <f>D$17</f>
         <v>1</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="11">
         <f>D$19+(E$17-1)/D$8</f>
         <v>1.9952623149688797</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="11">
         <f t="shared" ref="F19:L19" si="10">E$19+(F$17-1)/E$8</f>
         <v>2.2387211385683399</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="11">
         <f t="shared" si="10"/>
         <v>2.2419808163750092</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="11">
         <f t="shared" si="10"/>
         <v>2.2762506078131253</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="11">
         <f t="shared" si="10"/>
         <v>2.2762914014331144</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="11">
         <f t="shared" si="10"/>
         <v>2.2896608038155692</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="11">
         <f t="shared" si="10"/>
         <v>2.289817646215619</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="11">
         <f t="shared" si="10"/>
         <v>2.2909788580717105</v>
       </c>
     </row>
     <row r="20" spans="3:12">
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="11">
         <f>D$4-D$15</f>
         <v>9.228787452803374</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="11">
         <f t="shared" ref="E20:L20" si="11">E$4-E$15</f>
         <v>6.228787452803374</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="11">
         <f t="shared" si="11"/>
         <v>5.728787452803374</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="11">
         <f t="shared" si="11"/>
         <v>5.7224685306871521</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="11">
         <f t="shared" si="11"/>
         <v>5.6565867051037486</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="11">
         <f t="shared" si="11"/>
         <v>5.65650887410726</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="11">
         <f t="shared" si="11"/>
         <v>5.6310759566628263</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="11">
         <f t="shared" si="11"/>
         <v>5.630778473927009</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="11">
         <f t="shared" si="11"/>
         <v>5.6285766388891432</v>
       </c>
@@ -1615,4 +1616,34 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Electrical/Analysis+Design/RadarCalculators.xlsx
+++ b/Electrical/Analysis+Design/RadarCalculators.xlsx
@@ -16,6 +16,7 @@
     <sheet name="LinkBudget" sheetId="2" r:id="rId2"/>
     <sheet name="PulseRadar" sheetId="3" r:id="rId3"/>
     <sheet name="FMCWRadar" sheetId="4" r:id="rId4"/>
+    <sheet name="RCS" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="75">
   <si>
     <t>Pt</t>
   </si>
@@ -210,6 +211,51 @@
   </si>
   <si>
     <t>SNR (dB)</t>
+  </si>
+  <si>
+    <t>Pmax</t>
+  </si>
+  <si>
+    <t>Rmin</t>
+  </si>
+  <si>
+    <t>Tp</t>
+  </si>
+  <si>
+    <t>Ts</t>
+  </si>
+  <si>
+    <t>ns</t>
+  </si>
+  <si>
+    <t>Lpath</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>Bird</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>Cabin Cruiser</t>
+  </si>
+  <si>
+    <t>Automobile</t>
+  </si>
+  <si>
+    <t>Truck</t>
+  </si>
+  <si>
+    <t>Corner Reflector</t>
+  </si>
+  <si>
+    <t>Missile</t>
+  </si>
+  <si>
+    <t>Stealth Aircraft</t>
   </si>
 </sst>
 </file>
@@ -280,7 +326,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -288,12 +334,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -311,6 +372,18 @@
     <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -601,291 +674,300 @@
   <dimension ref="A2:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:K2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
     <col min="9" max="9" width="13" style="2" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18.75">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="E2" s="13" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="E2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
     </row>
     <row r="3" spans="1:11">
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="17" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="14">
         <v>20</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="19">
         <f>POWER(10, ($B$5 - 30)/10)</f>
         <v>0.1</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="14" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="19">
         <f>POWER($F$5*POWER($F$10*$F$11/1000, 2)*$B$10/(POWER(4*PI(),3)*$F$9), 0.25)</f>
-        <v>56.026251905705593</v>
-      </c>
-      <c r="K5" s="2" t="s">
+        <v>140.89856417214261</v>
+      </c>
+      <c r="K5" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3">
-        <v>200</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="18">
+        <v>50</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="19">
         <f>10*LOG10($B$17*($B$11+$B$19)*$B$6)+30+60</f>
-        <v>-90.917969741249408</v>
-      </c>
-      <c r="G6" s="2" t="s">
+        <v>-96.938569654528976</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>1</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="4"/>
+      <c r="I6" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="19">
+        <f>$F$6</f>
+        <v>-96.938569654528976</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="18">
         <v>0</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="20">
         <f>POWER(10, ($F$6-30)/10)</f>
-        <v>8.094742272759921E-13</v>
-      </c>
-      <c r="G7" s="2" t="s">
+        <v>2.0236855681900015E-13</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="3"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="18">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="19">
         <f>$F$6+$B$7</f>
-        <v>-90.917969741249408</v>
-      </c>
-      <c r="G8" s="2" t="s">
+        <v>-96.938569654528976</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>1</v>
       </c>
       <c r="H8" s="3"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="18">
         <v>3</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="20">
         <f>POWER(10, ($F$8-30)/10)</f>
-        <v>8.094742272759921E-13</v>
-      </c>
-      <c r="G9" s="2" t="s">
+        <v>2.0236855681900015E-13</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="3"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="18">
+        <v>10</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="19">
         <f>POWER(10, $B$8/10)</f>
         <v>3.9810717055349727</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="14" t="s">
         <v>18</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="18">
         <v>20</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="19">
         <f>$B$18/($B$9*1000000)</f>
         <v>99.930819333333332</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="14" t="s">
         <v>21</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="4"/>
     </row>
     <row r="14" spans="1:11" ht="18.75">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="20">
         <v>1.3806485199999999E-23</v>
       </c>
+      <c r="C17" s="14"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="18">
         <v>299792458</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="19">
         <v>273.14999999999998</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="14" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1620,12 +1702,399 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="5" max="7" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="18.75">
+      <c r="A2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14">
+        <v>20</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="19">
+        <f>POWER(10, ($B$5 - 30)/10)</f>
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="19">
+        <f>$B$18*($B$7+$B$8)*0.000000001/2</f>
+        <v>4.49688687</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="18">
+        <v>50</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="19">
+        <f>POWER(10, $B$9/10)</f>
+        <v>3.9810717055349727</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="19">
+        <f>-20*LOG10(POWER($F$6,2)*$B$11*POWER($F$7/1000,2)/(POWER(4*PI(),3)*POWER($J$5,4)))</f>
+        <v>94.197570871683865</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="18">
+        <f>1000/$B$6</f>
+        <v>20</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="19">
+        <f>$B$18/($B$10*1000000)</f>
+        <v>99.930819333333332</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="19">
+        <f>$B$5-$J$6</f>
+        <v>-74.197570871683865</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="15">
+        <v>10</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="18">
+        <v>6</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="18">
+        <v>3</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="18">
+        <v>100</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" ht="18.75">
+      <c r="A14" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1.3806485199999999E-23</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="3">
+        <v>299792458</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="4">
+        <v>273.14999999999998</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="A14:C14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1635,7 +2104,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1646,4 +2115,121 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="16">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="16">
+        <v>10</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="16">
+        <v>10</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="16">
+        <v>100</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="16">
+        <v>20000</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>